--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3324.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3324.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8635722582052023</v>
+        <v>1.811038136482239</v>
       </c>
       <c r="B1">
-        <v>1.081817571198263</v>
+        <v>4.736396312713623</v>
       </c>
       <c r="C1">
-        <v>1.558401939587121</v>
+        <v>3.769814968109131</v>
       </c>
       <c r="D1">
-        <v>5.764798174166708</v>
+        <v>0.9020178318023682</v>
       </c>
       <c r="E1">
-        <v>5.22393595279721</v>
+        <v>0.4737375676631927</v>
       </c>
     </row>
   </sheetData>
